--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox (Brooklyn College)/DraftTable/Repos/psyc73800/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA44174D-3698-814A-8CBD-13503974D297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E894E74F-FA2A-EF42-A724-EE2EAFCA5D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{597E2129-58F6-F24F-B362-A16816FBA10B}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{597E2129-58F6-F24F-B362-A16816FBA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,14 +843,14 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox (Brooklyn College)/DraftTable/Repos/psyc73800/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E894E74F-FA2A-EF42-A724-EE2EAFCA5D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DF9BF0-2CE9-1944-96CC-8A32B753270C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{597E2129-58F6-F24F-B362-A16816FBA10B}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="30760" windowHeight="18940" xr2:uid="{597E2129-58F6-F24F-B362-A16816FBA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
   <si>
     <t>Module</t>
   </si>
@@ -247,19 +247,18 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Schacter, D. L., Eich, J. E., &amp; Tulving, E. (1978). Richard Semon's theory of memory. Journal of Verbal Learning and Verbal Behavior, 17(6), 721-743.</t>
-  </si>
-  <si>
-    <t>Miller, G. A. (1956). The magic number seven plus or minus two: Some limits on our capacity for processing information. Psychological review, 63, 91-97.</t>
-  </si>
-  <si>
-    <t>Hintzman, D. L. (1986). " Schema abstraction" in a multiple-trace memory model. Psychological review, 93(4), 411.</t>
-  </si>
-  <si>
-    <t>Aujla, H., Crump, M. J., Cook, M. T., &amp; Jamieson, R. K. (2019). The Semantic Librarian: A search engine built from vector-space models of semantics. Behavior Research Methods, 51(6), 2405-2418.</t>
-  </si>
-  <si>
-    <t>Crump, M. J., Lai, W., &amp; Brosowsky, N. P. (2019). Instance theory predicts information theory: Episodic uncertainty as a determinant of keystroke dynamics. Canadian Journal of Experimental Psychology/Revue canadienne de psychologie expérimentale, 73(4), 203.</t>
+    <t>Readings</t>
+  </si>
+  <si>
+    <t>Hintzman, D. L. (1986). Schema abstraction in a multiple-trace memory model. Psychological review, 93(4), 411.
+Crump, M. J., Lai, W., &amp; Brosowsky, N. P. (2019). Instance theory predicts information theory: Episodic uncertainty as a determinant of keystroke dynamics. Canadian Journal of Experimental Psychology, 73(4), 203.
+Aujla, H., Crump, M. J., Cook, M. T., &amp; Jamieson, R. K. (2019). The Semantic Librarian: A search engine built from vector-space models of semantics. Behavior Research Methods, 51(6), 2405-2418.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Miller, G. A. (1956). The magic number seven plus or minus two: Some limits on our capacity for processing information. Psychological review, 63, 91-97.
+- Schacter, D. L., Eich, J. E., &amp; Tulving, E. (1978). Richard Semon's theory of memory. Journal of Verbal Learning and Verbal Behavior, 17(6), 721-743.
+- Newell, A. (1973). You can't play 20 questions with nature and win: Projective comments on the papers of this symposium.
+</t>
   </si>
 </sst>
 </file>
@@ -314,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -324,6 +323,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -643,7 +645,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,14 +669,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -689,14 +687,10 @@
       <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="99" x14ac:dyDescent="0.2">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="294" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -706,17 +700,13 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="99" x14ac:dyDescent="0.2">
+      <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="346" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,14 +717,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -746,12 +732,8 @@
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -766,12 +748,8 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -786,12 +764,8 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -806,12 +780,8 @@
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -826,12 +796,8 @@
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -846,12 +812,8 @@
       <c r="D10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -866,12 +828,8 @@
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -886,12 +844,8 @@
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -906,12 +860,8 @@
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -926,12 +876,8 @@
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -946,12 +892,8 @@
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -966,12 +908,8 @@
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox (Brooklyn College)/DraftTable/Repos/psyc73800/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DF9BF0-2CE9-1944-96CC-8A32B753270C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CE629-4F52-AF4C-8C09-3BACC8478113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="30760" windowHeight="18940" xr2:uid="{597E2129-58F6-F24F-B362-A16816FBA10B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
   <si>
     <t>Module</t>
   </si>
@@ -187,51 +187,6 @@
     <t>Natalie Kacinik</t>
   </si>
   <si>
-    <t>Friday August 28</t>
-  </si>
-  <si>
-    <t>Friday September 4</t>
-  </si>
-  <si>
-    <t>Friday September 11</t>
-  </si>
-  <si>
-    <t>Friday September 25</t>
-  </si>
-  <si>
-    <t>Friday October 9</t>
-  </si>
-  <si>
-    <t>Friday October 16</t>
-  </si>
-  <si>
-    <t>Friday October 23</t>
-  </si>
-  <si>
-    <t>Friday October 30</t>
-  </si>
-  <si>
-    <t>Friday November 6</t>
-  </si>
-  <si>
-    <t>Friday November 13</t>
-  </si>
-  <si>
-    <t>Friday December 4</t>
-  </si>
-  <si>
-    <t>Friday September 18 - closed</t>
-  </si>
-  <si>
-    <t>Friday October 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday November 20 </t>
-  </si>
-  <si>
-    <t>Wednesday November 25</t>
-  </si>
-  <si>
     <t>Midterm</t>
   </si>
   <si>
@@ -250,15 +205,70 @@
     <t>Readings</t>
   </si>
   <si>
-    <t>Hintzman, D. L. (1986). Schema abstraction in a multiple-trace memory model. Psychological review, 93(4), 411.
-Crump, M. J., Lai, W., &amp; Brosowsky, N. P. (2019). Instance theory predicts information theory: Episodic uncertainty as a determinant of keystroke dynamics. Canadian Journal of Experimental Psychology, 73(4), 203.
-Aujla, H., Crump, M. J., Cook, M. T., &amp; Jamieson, R. K. (2019). The Semantic Librarian: A search engine built from vector-space models of semantics. Behavior Research Methods, 51(6), 2405-2418.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Miller, G. A. (1956). The magic number seven plus or minus two: Some limits on our capacity for processing information. Psychological review, 63, 91-97.
-- Schacter, D. L., Eich, J. E., &amp; Tulving, E. (1978). Richard Semon's theory of memory. Journal of Verbal Learning and Verbal Behavior, 17(6), 721-743.
-- Newell, A. (1973). You can't play 20 questions with nature and win: Projective comments on the papers of this symposium.
-</t>
+    <t>posted on blackboard</t>
+  </si>
+  <si>
+    <t>Friday August 27</t>
+  </si>
+  <si>
+    <t>Friday September 3</t>
+  </si>
+  <si>
+    <t>Friday September 10</t>
+  </si>
+  <si>
+    <t>Friday September 17</t>
+  </si>
+  <si>
+    <t>Friday September 24</t>
+  </si>
+  <si>
+    <t>Friday October 1</t>
+  </si>
+  <si>
+    <t>Friday October 8</t>
+  </si>
+  <si>
+    <t>Friday October 15</t>
+  </si>
+  <si>
+    <t>Friday October 22</t>
+  </si>
+  <si>
+    <t>Friday October 29</t>
+  </si>
+  <si>
+    <t>Friday November 5</t>
+  </si>
+  <si>
+    <t>Friday November 12</t>
+  </si>
+  <si>
+    <t>Friday November 19</t>
+  </si>
+  <si>
+    <t>Friday December 3</t>
+  </si>
+  <si>
+    <t>Friday November 26</t>
+  </si>
+  <si>
+    <t>Friday December 10</t>
+  </si>
+  <si>
+    <t>Assignments</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>bibliography and proposal</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Final paper</t>
   </si>
 </sst>
 </file>
@@ -642,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E613C5-1E4D-7C41-BFD4-CD960B14031F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,9 +679,11 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -679,240 +691,272 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="294" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="346" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox (Brooklyn College)/DraftTable/Repos/psyc73800/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CE629-4F52-AF4C-8C09-3BACC8478113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7956160-E617-AD46-B5E6-E11597DA0731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="30760" windowHeight="18940" xr2:uid="{597E2129-58F6-F24F-B362-A16816FBA10B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
   <si>
     <t>Module</t>
   </si>
@@ -190,12 +190,6 @@
     <t>Midterm</t>
   </si>
   <si>
-    <t>Module 4: Embodied Cognition</t>
-  </si>
-  <si>
-    <t>Module 5: Concepts</t>
-  </si>
-  <si>
     <t>Module 6: Decision-Making</t>
   </si>
   <si>
@@ -269,6 +263,15 @@
   </si>
   <si>
     <t>Final paper</t>
+  </si>
+  <si>
+    <t>Module 2: Language</t>
+  </si>
+  <si>
+    <t>Module 3: Learning</t>
+  </si>
+  <si>
+    <t>Module 5: Embodied Cognition</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,10 +682,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -691,16 +694,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -709,7 +712,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -720,16 +723,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -738,80 +741,80 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -821,80 +824,80 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -904,7 +907,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -912,41 +915,41 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -955,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
